--- a/MM.xlsx
+++ b/MM.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t xml:space="preserve">Bases de données (KINX6AA2) </t>
@@ -32,7 +32,7 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>dimanche</t>
+    <t>jeudi</t>
   </si>
   <si>
     <t xml:space="preserve">Bases de données (KINX6AA2)  </t>
@@ -113,7 +113,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44939.0</v>
+        <v>46035.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -142,7 +142,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44941.0</v>
+        <v>46037.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
@@ -179,7 +179,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>44946.0</v>
+        <v>46042.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>1</v>
@@ -208,7 +208,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>44948.0</v>
+        <v>46044.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>6</v>
@@ -245,7 +245,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>45058.0</v>
+        <v>46154.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>1</v>
@@ -282,7 +282,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>45065.0</v>
+        <v>46161.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>1</v>
